--- a/natmiOut/OldD4/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7433157144117</v>
+        <v>0.223433</v>
       </c>
       <c r="H2">
-        <v>0.7433157144117</v>
+        <v>0.670299</v>
       </c>
       <c r="I2">
-        <v>0.3529049126769032</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J2">
-        <v>0.3529049126769032</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>0.6674538178317974</v>
+        <v>0.2705901731586667</v>
       </c>
       <c r="R2">
-        <v>0.6674538178317974</v>
+        <v>2.435311558428</v>
       </c>
       <c r="S2">
-        <v>0.004168173877430311</v>
+        <v>0.001041421880140971</v>
       </c>
       <c r="T2">
-        <v>0.004168173877430311</v>
+        <v>0.001279960134009592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7433157144117</v>
+        <v>0.223433</v>
       </c>
       <c r="H3">
-        <v>0.7433157144117</v>
+        <v>0.670299</v>
       </c>
       <c r="I3">
-        <v>0.3529049126769032</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J3">
-        <v>0.3529049126769032</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>42.21076060073221</v>
+        <v>13.64285458032467</v>
       </c>
       <c r="R3">
-        <v>42.21076060073221</v>
+        <v>122.785691222922</v>
       </c>
       <c r="S3">
-        <v>0.2636014432488797</v>
+        <v>0.05250732907879996</v>
       </c>
       <c r="T3">
-        <v>0.2636014432488797</v>
+        <v>0.06453416165511047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7433157144117</v>
+        <v>0.223433</v>
       </c>
       <c r="H4">
-        <v>0.7433157144117</v>
+        <v>0.670299</v>
       </c>
       <c r="I4">
-        <v>0.3529049126769032</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J4">
-        <v>0.3529049126769032</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>0.313494973613183</v>
+        <v>0.029555270374</v>
       </c>
       <c r="R4">
-        <v>0.313494973613183</v>
+        <v>0.265997433366</v>
       </c>
       <c r="S4">
-        <v>0.001957740782673104</v>
+        <v>0.0001137495308187617</v>
       </c>
       <c r="T4">
-        <v>0.001957740782673104</v>
+        <v>0.0001398039233539073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -723,111 +723,111 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7433157144117</v>
+        <v>0.223433</v>
       </c>
       <c r="H5">
-        <v>0.7433157144117</v>
+        <v>0.670299</v>
       </c>
       <c r="I5">
-        <v>0.3529049126769032</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J5">
-        <v>0.3529049126769032</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>13.31930435732881</v>
+        <v>0.146375873826</v>
       </c>
       <c r="R5">
-        <v>13.31930435732881</v>
+        <v>1.317382864434</v>
       </c>
       <c r="S5">
-        <v>0.08317755476792009</v>
+        <v>0.0005633576265822648</v>
       </c>
       <c r="T5">
-        <v>0.08317755476792009</v>
+        <v>0.0006923950004948554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.05551509014006</v>
+        <v>0.223433</v>
       </c>
       <c r="H6">
-        <v>1.05551509014006</v>
+        <v>0.670299</v>
       </c>
       <c r="I6">
-        <v>0.5011281928969379</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J6">
-        <v>0.5011281928969379</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>0.9477905054794139</v>
+        <v>4.260515626458</v>
       </c>
       <c r="R6">
-        <v>0.9477905054794139</v>
+        <v>25.563093758748</v>
       </c>
       <c r="S6">
-        <v>0.005918844900833768</v>
+        <v>0.01639746980565383</v>
       </c>
       <c r="T6">
-        <v>0.005918844900833768</v>
+        <v>0.01343554618295637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.05551509014006</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H7">
-        <v>1.05551509014006</v>
+        <v>2.246761</v>
       </c>
       <c r="I7">
-        <v>0.5011281928969379</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J7">
-        <v>0.5011281928969379</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>59.93966482415195</v>
+        <v>0.906985461765778</v>
       </c>
       <c r="R7">
-        <v>59.93966482415195</v>
+        <v>8.162869155892</v>
       </c>
       <c r="S7">
-        <v>0.3743164522656454</v>
+        <v>0.003490719909842338</v>
       </c>
       <c r="T7">
-        <v>0.3743164522656454</v>
+        <v>0.004290271223211618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05551509014006</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H8">
-        <v>1.05551509014006</v>
+        <v>2.246761</v>
       </c>
       <c r="I8">
-        <v>0.5011281928969379</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J8">
-        <v>0.5011281928969379</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>0.4451657201861602</v>
+        <v>45.72919488130645</v>
       </c>
       <c r="R8">
-        <v>0.4451657201861602</v>
+        <v>411.562753931758</v>
       </c>
       <c r="S8">
-        <v>0.002780009757132006</v>
+        <v>0.1759982025758859</v>
       </c>
       <c r="T8">
-        <v>0.002780009757132006</v>
+        <v>0.2163106875803152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.05551509014006</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H9">
-        <v>1.05551509014006</v>
+        <v>2.246761</v>
       </c>
       <c r="I9">
-        <v>0.5011281928969379</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J9">
-        <v>0.5011281928969379</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>18.91353359918624</v>
+        <v>0.09906568385266667</v>
       </c>
       <c r="R9">
-        <v>18.91353359918624</v>
+        <v>0.8915911546740002</v>
       </c>
       <c r="S9">
-        <v>0.1181128859733267</v>
+        <v>0.0003812746395442809</v>
       </c>
       <c r="T9">
-        <v>0.1181128859733267</v>
+        <v>0.0004686058052280374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.307446800861547</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H10">
-        <v>0.307446800861547</v>
+        <v>2.246761</v>
       </c>
       <c r="I10">
-        <v>0.1459668944261589</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J10">
-        <v>0.1459668944261589</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>0.2760691547838772</v>
+        <v>0.490634186614</v>
       </c>
       <c r="R10">
-        <v>0.2760691547838772</v>
+        <v>4.415707679526</v>
       </c>
       <c r="S10">
-        <v>0.001724020761574859</v>
+        <v>0.001888306478836454</v>
       </c>
       <c r="T10">
-        <v>0.001724020761574859</v>
+        <v>0.002320824115367652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.307446800861547</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H11">
-        <v>0.307446800861547</v>
+        <v>2.246761</v>
       </c>
       <c r="I11">
-        <v>0.1459668944261589</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J11">
-        <v>0.1459668944261589</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>17.45901917181839</v>
+        <v>14.280731956062</v>
       </c>
       <c r="R11">
-        <v>17.45901917181839</v>
+        <v>85.68439173637201</v>
       </c>
       <c r="S11">
-        <v>0.1090296072826831</v>
+        <v>0.0549623312253496</v>
       </c>
       <c r="T11">
-        <v>0.1090296072826831</v>
+        <v>0.04503432226150604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.307446800861547</v>
+        <v>1.070362666666667</v>
       </c>
       <c r="H12">
-        <v>0.307446800861547</v>
+        <v>3.211088</v>
       </c>
       <c r="I12">
-        <v>0.1459668944261589</v>
+        <v>0.3383232271126552</v>
       </c>
       <c r="J12">
-        <v>0.1459668944261589</v>
+        <v>0.3836346493238132</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>0.1296663380779336</v>
+        <v>1.296270556792889</v>
       </c>
       <c r="R12">
-        <v>0.1296663380779336</v>
+        <v>11.666435011136</v>
       </c>
       <c r="S12">
-        <v>0.0008097516692828215</v>
+        <v>0.004988963585292701</v>
       </c>
       <c r="T12">
-        <v>0.0008097516692828215</v>
+        <v>0.006131688435752689</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.211088</v>
+      </c>
+      <c r="I13">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J13">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N13">
+        <v>183.180478</v>
+      </c>
+      <c r="O13">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P13">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q13">
+        <v>65.35651497111823</v>
+      </c>
+      <c r="R13">
+        <v>588.208634740064</v>
+      </c>
+      <c r="S13">
+        <v>0.2515379768088356</v>
+      </c>
+      <c r="T13">
+        <v>0.3091528886075995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.211088</v>
+      </c>
+      <c r="I14">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J14">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.132278</v>
+      </c>
+      <c r="N14">
+        <v>0.396834</v>
+      </c>
+      <c r="O14">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P14">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q14">
+        <v>0.1415854328213333</v>
+      </c>
+      <c r="R14">
+        <v>1.274268895392</v>
+      </c>
+      <c r="S14">
+        <v>0.0005449206300736776</v>
+      </c>
+      <c r="T14">
+        <v>0.0006697349998055369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.211088</v>
+      </c>
+      <c r="I15">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J15">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.655122</v>
+      </c>
+      <c r="N15">
+        <v>1.965366</v>
+      </c>
+      <c r="O15">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P15">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q15">
+        <v>0.701218130912</v>
+      </c>
+      <c r="R15">
+        <v>6.310963178208</v>
+      </c>
+      <c r="S15">
+        <v>0.002698782057599357</v>
+      </c>
+      <c r="T15">
+        <v>0.003316939570772184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.211088</v>
+      </c>
+      <c r="I16">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J16">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.068426</v>
+      </c>
+      <c r="N16">
+        <v>38.136852</v>
+      </c>
+      <c r="O16">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P16">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q16">
+        <v>20.410131302496</v>
+      </c>
+      <c r="R16">
+        <v>122.460787814976</v>
+      </c>
+      <c r="S16">
+        <v>0.07855258403085393</v>
+      </c>
+      <c r="T16">
+        <v>0.0643633977098832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.121012</v>
+      </c>
+      <c r="H17">
+        <v>2.242024</v>
+      </c>
+      <c r="I17">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J17">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.633172</v>
+      </c>
+      <c r="O17">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P17">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q17">
+        <v>1.357609803354667</v>
+      </c>
+      <c r="R17">
+        <v>8.145658820128</v>
+      </c>
+      <c r="S17">
+        <v>0.005225040279191484</v>
+      </c>
+      <c r="T17">
+        <v>0.004281225750736195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.121012</v>
+      </c>
+      <c r="H18">
+        <v>2.242024</v>
+      </c>
+      <c r="I18">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J18">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N18">
+        <v>183.180478</v>
+      </c>
+      <c r="O18">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P18">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q18">
+        <v>68.44917133457866</v>
+      </c>
+      <c r="R18">
+        <v>410.695028007472</v>
+      </c>
+      <c r="S18">
+        <v>0.2634407002783104</v>
+      </c>
+      <c r="T18">
+        <v>0.2158546249519057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.121012</v>
+      </c>
+      <c r="H19">
+        <v>2.242024</v>
+      </c>
+      <c r="I19">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J19">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.132278</v>
+      </c>
+      <c r="N19">
+        <v>0.396834</v>
+      </c>
+      <c r="O19">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P19">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q19">
+        <v>0.148285225336</v>
+      </c>
+      <c r="R19">
+        <v>0.8897113520160002</v>
+      </c>
+      <c r="S19">
+        <v>0.0005707061581870259</v>
+      </c>
+      <c r="T19">
+        <v>0.0004676178115342866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.307446800861547</v>
-      </c>
-      <c r="H13">
-        <v>0.307446800861547</v>
-      </c>
-      <c r="I13">
-        <v>0.1459668944261589</v>
-      </c>
-      <c r="J13">
-        <v>0.1459668944261589</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>17.918771390257</v>
-      </c>
-      <c r="N13">
-        <v>17.918771390257</v>
-      </c>
-      <c r="O13">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="P13">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="Q13">
-        <v>5.50906893930393</v>
-      </c>
-      <c r="R13">
-        <v>5.50906893930393</v>
-      </c>
-      <c r="S13">
-        <v>0.03440351471261809</v>
-      </c>
-      <c r="T13">
-        <v>0.03440351471261809</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.121012</v>
+      </c>
+      <c r="H20">
+        <v>2.242024</v>
+      </c>
+      <c r="I20">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J20">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.655122</v>
+      </c>
+      <c r="N20">
+        <v>1.965366</v>
+      </c>
+      <c r="O20">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P20">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q20">
+        <v>0.734399623464</v>
+      </c>
+      <c r="R20">
+        <v>4.406397740784</v>
+      </c>
+      <c r="S20">
+        <v>0.002826487849557755</v>
+      </c>
+      <c r="T20">
+        <v>0.002315930963032136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.121012</v>
+      </c>
+      <c r="H21">
+        <v>2.242024</v>
+      </c>
+      <c r="I21">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J21">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.068426</v>
+      </c>
+      <c r="N21">
+        <v>38.136852</v>
+      </c>
+      <c r="O21">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P21">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q21">
+        <v>21.375934367112</v>
+      </c>
+      <c r="R21">
+        <v>85.50373746844801</v>
+      </c>
+      <c r="S21">
+        <v>0.08226967557064363</v>
+      </c>
+      <c r="T21">
+        <v>0.04493937331742487</v>
       </c>
     </row>
   </sheetData>
